--- a/Docs/Статистика репозиториев.xlsx
+++ b/Docs/Статистика репозиториев.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cf\projects\SMALL_PROJECTS\DiplomaStatsCounter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEE17F4-EE64-412F-9C95-0F1428EFF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061CF395-9E3D-4E4F-9706-1BB16421A93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C84E8B77-9B24-4BE2-8DB6-164923485C9A}"/>
+    <workbookView xWindow="9795" yWindow="1260" windowWidth="18960" windowHeight="13605" xr2:uid="{C84E8B77-9B24-4BE2-8DB6-164923485C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,11 +382,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,13 +399,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90BA14-D271-4B45-8CFA-A748266BCE69}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,62 +736,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="7"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -802,7 +799,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -2234,11 +2231,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="I1:M1"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/Статистика репозиториев.xlsx
+++ b/Docs/Статистика репозиториев.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cf\projects\SMALL_PROJECTS\DiplomaStatsCounter\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061CF395-9E3D-4E4F-9706-1BB16421A93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B14FBC5-5001-4C2F-A50A-470CBABA9A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="1260" windowWidth="18960" windowHeight="13605" xr2:uid="{C84E8B77-9B24-4BE2-8DB6-164923485C9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C84E8B77-9B24-4BE2-8DB6-164923485C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t>Название репозитория</t>
   </si>
@@ -272,6 +273,33 @@
   </si>
   <si>
     <t>https://github.com/matterpreter/OffensiveCSharp</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>total lines</t>
+  </si>
+  <si>
+    <t>commits</t>
+  </si>
+  <si>
+    <t>Коммитов (x1)</t>
+  </si>
+  <si>
+    <t>Новых строк (y)</t>
+  </si>
+  <si>
+    <t>Авторов (x2)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -717,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90BA14-D271-4B45-8CFA-A748266BCE69}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +796,7 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -774,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>2</v>
@@ -2240,4 +2271,408 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334FAB54-2482-4243-B10D-C981A9D24010}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5540</v>
+      </c>
+      <c r="C3">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5024</v>
+      </c>
+      <c r="C4">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>10016</v>
+      </c>
+      <c r="C5">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>18772</v>
+      </c>
+      <c r="C6">
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>3428</v>
+      </c>
+      <c r="C7">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>22320</v>
+      </c>
+      <c r="C8">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>51216</v>
+      </c>
+      <c r="C9">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>206940</v>
+      </c>
+      <c r="C10">
+        <v>51735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>28176</v>
+      </c>
+      <c r="C11">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>11100</v>
+      </c>
+      <c r="C12">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>82</v>
+      </c>
+      <c r="B13">
+        <v>193848</v>
+      </c>
+      <c r="C13">
+        <v>48462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>2076</v>
+      </c>
+      <c r="C14">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>39068</v>
+      </c>
+      <c r="C15">
+        <v>9767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>7032</v>
+      </c>
+      <c r="C16">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>58</v>
+      </c>
+      <c r="B17">
+        <v>32668</v>
+      </c>
+      <c r="C17">
+        <v>8167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>90712</v>
+      </c>
+      <c r="C18">
+        <v>22678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>122</v>
+      </c>
+      <c r="B19">
+        <v>54332</v>
+      </c>
+      <c r="C19">
+        <v>13583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <v>70580</v>
+      </c>
+      <c r="C20">
+        <v>17645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>209972</v>
+      </c>
+      <c r="C21">
+        <v>52493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>175460</v>
+      </c>
+      <c r="C22">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>560</v>
+      </c>
+      <c r="C23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3740</v>
+      </c>
+      <c r="C24">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>6256</v>
+      </c>
+      <c r="C25">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>476660</v>
+      </c>
+      <c r="C26">
+        <v>119165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>920</v>
+      </c>
+      <c r="C27">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>624</v>
+      </c>
+      <c r="C28">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>5636</v>
+      </c>
+      <c r="C29">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5136</v>
+      </c>
+      <c r="C30">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>127376</v>
+      </c>
+      <c r="C31">
+        <v>31844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>115092</v>
+      </c>
+      <c r="C32">
+        <v>28773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>14884</v>
+      </c>
+      <c r="C33">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>214</v>
+      </c>
+      <c r="B34">
+        <v>139668</v>
+      </c>
+      <c r="C34">
+        <v>34917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>17500</v>
+      </c>
+      <c r="C35">
+        <v>4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>